--- a/src/main/webapp/assets/template/non-working-day-example.xlsx
+++ b/src/main/webapp/assets/template/non-working-day-example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Tarix</t>
   </si>
@@ -35,6 +35,19 @@
   </si>
   <si>
     <t>Yeni il</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>İ</t>
+  </si>
+  <si>
+    <t>İdentifikator
+B - Bayram, QB - Qara bayram, İ - İstirahət günü</t>
   </si>
 </sst>
 </file>
@@ -85,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +108,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,103 +416,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43485</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43543</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43544</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43545</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43736</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43737</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43830</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/webapp/assets/template/non-working-day-example.xlsx
+++ b/src/main/webapp/assets/template/non-working-day-example.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBCC2A-92C2-42BB-817B-59FDD792E50C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,20 +41,20 @@
     <t>B</t>
   </si>
   <si>
-    <t>QB</t>
-  </si>
-  <si>
     <t>İ</t>
   </si>
   <si>
     <t>İdentifikator
 B - Bayram, QB - Qara bayram, İ - İstirahət günü</t>
+  </si>
+  <si>
+    <t>QİG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,6 +206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -456,7 +491,7 @@
         <v>43485</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -500,7 +535,7 @@
         <v>43736</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -511,7 +546,7 @@
         <v>43737</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -522,7 +557,7 @@
         <v>43743</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -533,7 +568,7 @@
         <v>43744</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>

--- a/src/main/webapp/assets/template/non-working-day-example.xlsx
+++ b/src/main/webapp/assets/template/non-working-day-example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBCC2A-92C2-42BB-817B-59FDD792E50C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9897BB-14BB-403C-9339-8A28784FA146}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="9">
   <si>
     <t>Tarix</t>
   </si>
@@ -23,16 +23,7 @@
     <t>Açıqlama</t>
   </si>
   <si>
-    <t>Həftə sonu</t>
-  </si>
-  <si>
     <t>Novruz bayramı</t>
-  </si>
-  <si>
-    <t>20 Yanvar</t>
-  </si>
-  <si>
-    <t>Həmrəyliy günü, Yeni il</t>
   </si>
   <si>
     <t>Yeni il</t>
@@ -44,11 +35,14 @@
     <t>İ</t>
   </si>
   <si>
-    <t>İdentifikator
-B - Bayram, QB - Qara bayram, İ - İstirahət günü</t>
+    <t>İstirahət günü</t>
   </si>
   <si>
-    <t>QİG</t>
+    <t>İdentifikator
+B - Bayram, QİG - Qeyri iş günü, İ - İstirahət günü</t>
+  </si>
+  <si>
+    <t>Azərbaycanlıların həmrəyliy günü, Yeni il</t>
   </si>
 </sst>
 </file>
@@ -451,17 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -469,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -477,10 +471,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43466</v>
+        <v>43709</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -488,105 +482,875 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43485</v>
+        <v>43716</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43543</v>
+        <v>43723</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43544</v>
+        <v>43730</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43545</v>
+        <v>43737</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43736</v>
+        <v>43744</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43737</v>
+        <v>43751</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43743</v>
+        <v>43758</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43744</v>
+        <v>43765</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43830</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B11">
+  <sortState ref="A2:B33">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/assets/template/non-working-day-example.xlsx
+++ b/src/main/webapp/assets/template/non-working-day-example.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9897BB-14BB-403C-9339-8A28784FA146}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB897C-B4F5-47B9-B58A-A90AC38C6DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="11">
   <si>
     <t>Tarix</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Azərbaycanlıların həmrəyliy günü, Yeni il</t>
+  </si>
+  <si>
+    <t>QİG</t>
+  </si>
+  <si>
+    <t>20 Yanvar matəm günü</t>
   </si>
 </sst>
 </file>
@@ -445,20 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43709</v>
       </c>
@@ -480,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43716</v>
       </c>
@@ -491,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43723</v>
       </c>
@@ -502,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43730</v>
       </c>
@@ -513,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43737</v>
       </c>
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43744</v>
       </c>
@@ -535,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43751</v>
       </c>
@@ -546,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43758</v>
       </c>
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43765</v>
       </c>
@@ -568,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43772</v>
       </c>
@@ -579,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43779</v>
       </c>
@@ -590,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43786</v>
       </c>
@@ -601,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43793</v>
       </c>
@@ -612,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43800</v>
       </c>
@@ -623,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43807</v>
       </c>
@@ -634,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43814</v>
       </c>
@@ -645,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43821</v>
       </c>
@@ -656,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43828</v>
       </c>
@@ -667,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43830</v>
       </c>
@@ -678,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43831</v>
       </c>
@@ -689,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43832</v>
       </c>
@@ -700,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43833</v>
       </c>
@@ -711,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43835</v>
       </c>
@@ -722,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43842</v>
       </c>
@@ -733,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43849</v>
       </c>
@@ -744,108 +750,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>43856</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>43863</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>43870</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>43877</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>43884</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>43891</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>43898</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>43905</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>43910</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43911</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -854,482 +860,482 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>43912</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>43919</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>43926</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>43933</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>43940</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>43947</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43954</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>43961</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>43968</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>43975</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>43982</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>43989</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>43996</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>44003</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>44010</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>44017</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>44024</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>44031</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>44038</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>44045</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>44052</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>44059</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>44066</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>44073</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>44080</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>44087</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>44094</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>44101</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>44108</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>44115</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>44122</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>44129</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>44136</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>44143</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>44150</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>44157</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>44164</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>44171</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>44178</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>44185</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>44192</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>44196</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>44197</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1338,9 +1344,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1349,8 +1355,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B33">
+  <sortState ref="A2:B34">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
